--- a/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
@@ -115,25 +115,25 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
     <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>KROO</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3698.0</v>
+        <v>4156.0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.864899866592566</v>
+        <v>56.063419103720584</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2491.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.459582053087591</v>
+        <v>38.864899866592566</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3106.0</v>
+        <v>5004.0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.634499455282995</v>
+        <v>87.9069656388397</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4156.0</v>
+        <v>3106.0</v>
       </c>
       <c r="D11" t="n">
-        <v>56.063419103720584</v>
+        <v>16.634499455282995</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>4094.0</v>
+        <v>3117.0</v>
       </c>
       <c r="D12" t="n">
-        <v>53.73523527686046</v>
+        <v>17.047564327790436</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5004.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.9069656388397</v>
+        <v>-6.459582053087591</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3117.0</v>
+        <v>4094.0</v>
       </c>
       <c r="D14" t="n">
-        <v>17.047564327790436</v>
+        <v>53.73523527686046</v>
       </c>
     </row>
     <row r="15">
@@ -805,7 +805,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -819,21 +819,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2311.0</v>
+        <v>2426.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.130967378670917</v>
+        <v>-14.056999939703871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2426.0</v>
+        <v>2311.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-14.056999939703871</v>
+        <v>-18.130967378670917</v>
       </c>
     </row>
   </sheetData>
@@ -949,86 +949,86 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>238.0</v>
+        <v>251.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-22.28502793931144</v>
+        <v>-18.04009249061837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>271.0</v>
+        <v>293.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-11.509422569552102</v>
+        <v>-4.32568565637921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>251.0</v>
+        <v>238.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-18.04009249061837</v>
+        <v>-22.28502793931144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>276.0</v>
+        <v>122.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.876755089285535</v>
+        <v>-60.162913481495785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>293.0</v>
+        <v>142.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.32568565637921</v>
+        <v>-53.632243560429515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0</v>
+        <v>271.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-60.162913481495785</v>
+        <v>-11.509422569552102</v>
       </c>
     </row>
     <row r="14">
@@ -1039,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>142.0</v>
+        <v>276.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-53.632243560429515</v>
+        <v>-9.876755089285535</v>
       </c>
     </row>
     <row r="15">
@@ -1149,44 +1149,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>512.0</v>
+        <v>278.0</v>
       </c>
       <c r="D8" t="n">
-        <v>67.1851499792964</v>
+        <v>-9.22368809717891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>419.0</v>
+        <v>330.0</v>
       </c>
       <c r="D9" t="n">
-        <v>36.81753484633826</v>
+        <v>7.756053697593382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>278.0</v>
+        <v>512.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.22368809717891</v>
+        <v>67.1851499792964</v>
       </c>
     </row>
     <row r="11">
@@ -1197,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>391.0</v>
+        <v>88.0</v>
       </c>
       <c r="D11" t="n">
-        <v>27.67459695684549</v>
+        <v>-71.26505234730843</v>
       </c>
     </row>
     <row r="12">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>330.0</v>
+        <v>419.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.756053697593382</v>
+        <v>36.81753484633826</v>
       </c>
     </row>
     <row r="13">
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>88.0</v>
+        <v>391.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-71.26505234730843</v>
+        <v>27.67459695684549</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>TORENBEEK_2013</t>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
   </si>
   <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>26631.017060421655</v>
+        <v>27189.38540239843</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>23967.91535437949</v>
+        <v>24470.44686215859</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5149.210094359609</v>
+        <v>5033.710370191</v>
       </c>
     </row>
     <row r="9">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5025.229716835952</v>
+        <v>5525.879291771422</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>23597.787343585704</v>
+        <v>23655.50611062701</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>21605.787343585704</v>
+        <v>21663.506110627015</v>
       </c>
     </row>
     <row r="12">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>14669.787343585707</v>
+        <v>14727.506110627015</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>14440.243698085706</v>
+        <v>14497.962465127013</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>13854.28769808571</v>
+        <v>13912.006465127019</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>7981.685166756812</v>
+        <v>8029.307723886854</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2663.019959365302</v>
+        <v>2718.7049670534166</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3532.375</v>
+        <v>3391.5</v>
       </c>
       <c r="D3" t="n">
-        <v>32.645457183952075</v>
+        <v>24.746893874099584</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3532.3749999999995</v>
+        <v>3391.4999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4156.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.063419103720584</v>
+        <v>36.020643829108174</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3698.0</v>
+        <v>2585.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.864899866592566</v>
+        <v>-4.917965306045256</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5004.0</v>
+        <v>3917.0</v>
       </c>
       <c r="D10" t="n">
-        <v>87.9069656388397</v>
+        <v>44.07594966971788</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3106.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.634499455282995</v>
+        <v>-8.375493840370883</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3117.0</v>
+        <v>2968.0</v>
       </c>
       <c r="D12" t="n">
-        <v>17.047564327790436</v>
+        <v>9.169624360409161</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2491.0</v>
+        <v>3149.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.459582053087591</v>
+        <v>15.827205899908506</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>4094.0</v>
+        <v>3818.0</v>
       </c>
       <c r="D14" t="n">
-        <v>53.73523527686046</v>
+        <v>40.43451004314089</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2593.0</v>
+        <v>4506.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.6293441443822254</v>
+        <v>65.74067633692846</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2822.80115692722</v>
+        <v>2881.827265076621</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2358.75</v>
+        <v>2560.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.439385246404182</v>
+        <v>-11.150122318940515</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2358.7499999999995</v>
+        <v>2560.4999999999995</v>
       </c>
     </row>
     <row r="6">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2144.0</v>
+        <v>2613.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-24.047076616127413</v>
+        <v>-9.328361499469459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2426.0</v>
+        <v>2330.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.056999939703871</v>
+        <v>-19.148519821570545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2554.0</v>
+        <v>2539.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.522497051114462</v>
+        <v>-11.89617674977151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2311.0</v>
+        <v>2760.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.130967378670917</v>
+        <v>-4.227431204950519</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>306.24729532700974</v>
+        <v>312.6510712111429</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>237.0</v>
+        <v>224.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-22.611561435364745</v>
+        <v>-28.19471267751127</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>236.99999999999997</v>
+        <v>224.49999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -949,72 +949,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>251.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.04009249061837</v>
+        <v>-60.339173149271254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>293.0</v>
+        <v>207.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.32568565637921</v>
+        <v>-33.792006789509266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0</v>
+        <v>303.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-22.28502793931144</v>
+        <v>-3.0868505179773305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>122.0</v>
+        <v>216.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-60.162913481495785</v>
+        <v>-30.91339838905315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>142.0</v>
+        <v>273.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-53.632243560429515</v>
+        <v>-12.68221185283106</v>
       </c>
     </row>
     <row r="13">
@@ -1025,10 +1025,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>271.0</v>
+        <v>144.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.509422569552102</v>
+        <v>-53.9422655927021</v>
       </c>
     </row>
     <row r="14">
@@ -1039,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>276.0</v>
+        <v>236.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.876755089285535</v>
+        <v>-24.516490832483992</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>303.0</v>
+        <v>293.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.0603506958460769</v>
+        <v>-6.285304296261907</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>306.24729532700974</v>
+        <v>312.6510712111429</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>324.8571428571428</v>
+        <v>301.42857142857144</v>
       </c>
       <c r="D3" t="n">
-        <v>6.076738575033476</v>
+        <v>-3.5894646831363555</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>324.8571428571428</v>
+        <v>301.4285714285714</v>
       </c>
     </row>
     <row r="6">
@@ -1149,58 +1149,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>278.0</v>
+        <v>445.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.22368809717891</v>
+        <v>42.33119313366365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>330.0</v>
+        <v>256.0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.756053697593382</v>
+        <v>-18.11958327591484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>512.0</v>
+        <v>239.0</v>
       </c>
       <c r="D10" t="n">
-        <v>67.1851499792964</v>
+        <v>-23.55695469899862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>88.0</v>
+        <v>413.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-71.26505234730843</v>
+        <v>32.09614104315301</v>
       </c>
     </row>
     <row r="12">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>419.0</v>
+        <v>89.0</v>
       </c>
       <c r="D12" t="n">
-        <v>36.81753484633826</v>
+        <v>-71.53376137326727</v>
       </c>
     </row>
     <row r="13">
@@ -1225,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>391.0</v>
+        <v>338.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.67459695684549</v>
+        <v>8.107737706018687</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>256.0</v>
+        <v>330.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.4074250103518</v>
+        <v>5.548974683391027</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>505.97379227940735</v>
+        <v>516.5539437401492</v>
       </c>
     </row>
     <row r="3">
@@ -1298,7 +1298,7 @@
         <v>354.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-30.035901977208503</v>
+        <v>-31.468919308439435</v>
       </c>
     </row>
     <row r="4">
@@ -1345,30 +1345,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.826456757127037</v>
+        <v>-30.694556814749454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-29.245347197289938</v>
+        <v>-32.24328180212936</v>
       </c>
     </row>
     <row r="12">
@@ -1403,30 +1403,30 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.826456757127037</v>
+        <v>-30.694556814749454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>179.0</v>
+        <v>175.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-29.245347197289938</v>
+        <v>-32.24328180212936</v>
       </c>
     </row>
     <row r="18">
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2210.3065662732006</v>
+        <v>2256.525122654336</v>
       </c>
     </row>
     <row r="3">
@@ -1507,7 +1507,7 @@
         <v>1756.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.55400699637821</v>
+        <v>-22.181234218459377</v>
       </c>
     </row>
     <row r="4">
@@ -1563,30 +1563,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.4476439500858636</v>
+        <v>-37.957703818817244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-36.66037004267055</v>
+        <v>-6.404764618101444</v>
       </c>
     </row>
     <row r="13">
@@ -1621,30 +1621,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1056.0</v>
+        <v>700.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.4476439500858636</v>
+        <v>-37.957703818817244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>700.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-36.66037004267055</v>
+        <v>-6.404764618101444</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1091.8381833397739</v>
+        <v>1114.669036491901</v>
       </c>
     </row>
     <row r="3">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1174.7030238996722</v>
+        <v>1197.3791524582853</v>
       </c>
       <c r="D3" t="n">
-        <v>7.589480000271362</v>
+        <v>7.420150130543733</v>
       </c>
     </row>
     <row r="4">
@@ -1738,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1174.703023899672</v>
+        <v>1197.379152458285</v>
       </c>
     </row>
     <row r="6">
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1174.7030238996722</v>
+        <v>1197.3791524582853</v>
       </c>
       <c r="D9" t="n">
-        <v>7.5894800002713625</v>
+        <v>7.420150130543734</v>
       </c>
     </row>
     <row r="10">
@@ -1783,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>208.500572458309</v>
+        <v>211.830149733538</v>
       </c>
     </row>
     <row r="12">
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>966.2024514413633</v>
+        <v>985.5490027247473</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3621.7071447368107</v>
+        <v>3697.4387551926466</v>
       </c>
     </row>
     <row r="3">
@@ -1852,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4116.6025313289065</v>
+        <v>4126.69874124017</v>
       </c>
       <c r="D3" t="n">
-        <v>13.664699182298435</v>
+        <v>11.609657778500715</v>
       </c>
     </row>
     <row r="4">
@@ -1866,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4116.602531328906</v>
+        <v>4126.69874124017</v>
       </c>
     </row>
     <row r="5">
@@ -1892,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>4116.6025313289065</v>
+        <v>4126.69874124017</v>
       </c>
       <c r="D8" t="n">
-        <v>13.664699182298456</v>
+        <v>11.609657778500734</v>
       </c>
     </row>
     <row r="9">
@@ -2002,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>476.35323347263034</v>
+        <v>477.4433340900357</v>
       </c>
     </row>
     <row r="22">
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>476.3532334726303</v>
+        <v>477.44333409003565</v>
       </c>
     </row>
     <row r="24">
@@ -2045,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>207.810496810813</v>
+        <v>208.6672806591015</v>
       </c>
     </row>
     <row r="27">
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>207.81049681081296</v>
+        <v>208.66728065910146</v>
       </c>
     </row>
     <row r="29">
@@ -2131,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>438.4505800626798</v>
+        <v>444.54192043927117</v>
       </c>
     </row>
     <row r="37">
@@ -2153,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>438.45058006267976</v>
+        <v>444.5419204392711</v>
       </c>
     </row>
     <row r="39">
@@ -2174,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1560.3402678721009</v>
+        <v>1562.3982529410805</v>
       </c>
     </row>
     <row r="42">
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>1560.3402678721009</v>
+        <v>1562.3982529410805</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
@@ -118,34 +118,34 @@
     <t>TORENBEEK_2013</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
     <t>KROO</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
   </si>
   <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2585.0</v>
+        <v>3149.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.917965306045256</v>
+        <v>15.827205899908506</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3917.0</v>
+        <v>2585.0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.07594966971788</v>
+        <v>-4.917965306045256</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2491.0</v>
+        <v>3818.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.375493840370883</v>
+        <v>40.43451004314089</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2968.0</v>
+        <v>3917.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.169624360409161</v>
+        <v>44.07594966971788</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3149.0</v>
+        <v>4506.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.827205899908506</v>
+        <v>65.74067633692846</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3818.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.43451004314089</v>
+        <v>-8.375493840370883</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>4506.0</v>
+        <v>2968.0</v>
       </c>
       <c r="D15" t="n">
-        <v>65.74067633692846</v>
+        <v>9.169624360409161</v>
       </c>
     </row>
   </sheetData>
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2613.0</v>
+        <v>2330.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.328361499469459</v>
+        <v>-19.148519821570545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2330.0</v>
+        <v>2760.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.148519821570545</v>
+        <v>-4.227431204950519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2539.0</v>
+        <v>2613.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.89617674977151</v>
+        <v>-9.328361499469459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2760.0</v>
+        <v>2539.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.227431204950519</v>
+        <v>-11.89617674977151</v>
       </c>
     </row>
   </sheetData>
@@ -949,114 +949,114 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>144.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-60.339173149271254</v>
+        <v>-53.9422655927021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>207.0</v>
+        <v>303.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-33.792006789509266</v>
+        <v>-3.0868505179773305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>303.0</v>
+        <v>207.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.0868505179773305</v>
+        <v>-33.792006789509266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>216.0</v>
+        <v>236.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.91339838905315</v>
+        <v>-24.516490832483992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>273.0</v>
+        <v>124.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-12.68221185283106</v>
+        <v>-60.339173149271254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>144.0</v>
+        <v>216.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-53.9422655927021</v>
+        <v>-30.91339838905315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>236.0</v>
+        <v>293.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-24.516490832483992</v>
+        <v>-6.285304296261907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>293.0</v>
+        <v>273.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.285304296261907</v>
+        <v>-12.68221185283106</v>
       </c>
     </row>
   </sheetData>
@@ -1149,21 +1149,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>445.0</v>
+        <v>89.0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.33119313366365</v>
+        <v>-71.53376137326727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>239.0</v>
+        <v>445.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-23.55695469899862</v>
+        <v>42.33119313366365</v>
       </c>
     </row>
     <row r="11">
@@ -1197,52 +1197,52 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>413.0</v>
+        <v>338.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.09614104315301</v>
+        <v>8.107737706018687</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>89.0</v>
+        <v>239.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-71.53376137326727</v>
+        <v>-23.55695469899862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>338.0</v>
+        <v>330.0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.107737706018687</v>
+        <v>5.548974683391027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>330.0</v>
+        <v>413.0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.548974683391027</v>
+        <v>32.09614104315301</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3698.0</v>
+        <v>3149.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.020643829108174</v>
+        <v>15.827205899908506</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3149.0</v>
+        <v>3917.0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.827205899908506</v>
+        <v>44.07594966971788</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2585.0</v>
+        <v>2968.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.917965306045256</v>
+        <v>9.169624360409161</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3818.0</v>
+        <v>2585.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.43451004314089</v>
+        <v>-4.917965306045256</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3917.0</v>
+        <v>3818.0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.07594966971788</v>
+        <v>40.43451004314089</v>
       </c>
     </row>
     <row r="13">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2968.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D15" t="n">
-        <v>9.169624360409161</v>
+        <v>36.020643829108174</v>
       </c>
     </row>
   </sheetData>
@@ -805,21 +805,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2330.0</v>
+        <v>2613.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.148519821570545</v>
+        <v>-9.328361499469459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -833,30 +833,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2613.0</v>
+        <v>2539.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.328361499469459</v>
+        <v>-11.89617674977151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2539.0</v>
+        <v>2330.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.89617674977151</v>
+        <v>-19.148519821570545</v>
       </c>
     </row>
   </sheetData>
@@ -949,44 +949,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>144.0</v>
+        <v>207.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-53.9422655927021</v>
+        <v>-33.792006789509266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>303.0</v>
+        <v>144.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.0868505179773305</v>
+        <v>-53.9422655927021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>207.0</v>
+        <v>216.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-33.792006789509266</v>
+        <v>-30.91339838905315</v>
       </c>
     </row>
     <row r="11">
@@ -997,66 +997,66 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>236.0</v>
+        <v>303.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.516490832483992</v>
+        <v>-3.0868505179773305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-60.339173149271254</v>
+        <v>-24.516490832483992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>216.0</v>
+        <v>293.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.91339838905315</v>
+        <v>-6.285304296261907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>293.0</v>
+        <v>273.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.285304296261907</v>
+        <v>-12.68221185283106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>273.0</v>
+        <v>124.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-12.68221185283106</v>
+        <v>-60.339173149271254</v>
       </c>
     </row>
   </sheetData>
@@ -1149,44 +1149,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>89.0</v>
+        <v>445.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-71.53376137326727</v>
+        <v>42.33119313366365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>256.0</v>
+        <v>89.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.11958327591484</v>
+        <v>-71.53376137326727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>445.0</v>
+        <v>239.0</v>
       </c>
       <c r="D10" t="n">
-        <v>42.33119313366365</v>
+        <v>-23.55695469899862</v>
       </c>
     </row>
     <row r="11">
@@ -1197,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>338.0</v>
+        <v>256.0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.107737706018687</v>
+        <v>-18.11958327591484</v>
       </c>
     </row>
     <row r="12">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>239.0</v>
+        <v>338.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-23.55695469899862</v>
+        <v>8.107737706018687</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1359,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/ATR-72 - ATsi/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>KROO</t>
+    <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3149.0</v>
+        <v>2968.0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.827205899908506</v>
+        <v>9.169624360409161</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3917.0</v>
+        <v>2491.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.07594966971788</v>
+        <v>-8.375493840370883</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2968.0</v>
+        <v>4506.0</v>
       </c>
       <c r="D10" t="n">
-        <v>9.169624360409161</v>
+        <v>65.74067633692846</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2585.0</v>
+        <v>3917.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.917965306045256</v>
+        <v>44.07594966971788</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3818.0</v>
+        <v>2585.0</v>
       </c>
       <c r="D12" t="n">
-        <v>40.43451004314089</v>
+        <v>-4.917965306045256</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4506.0</v>
+        <v>3149.0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.74067633692846</v>
+        <v>15.827205899908506</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2491.0</v>
+        <v>3698.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.375493840370883</v>
+        <v>36.020643829108174</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>3698.0</v>
+        <v>3818.0</v>
       </c>
       <c r="D15" t="n">
-        <v>36.020643829108174</v>
+        <v>40.43451004314089</v>
       </c>
     </row>
   </sheetData>
@@ -819,35 +819,35 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2760.0</v>
+        <v>2539.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.227431204950519</v>
+        <v>-11.89617674977151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2539.0</v>
+        <v>2760.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.89617674977151</v>
+        <v>-4.227431204950519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -949,58 +949,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>207.0</v>
+        <v>273.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-33.792006789509266</v>
+        <v>-12.68221185283106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>144.0</v>
+        <v>293.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.9422655927021</v>
+        <v>-6.285304296261907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>216.0</v>
+        <v>207.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.91339838905315</v>
+        <v>-33.792006789509266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>303.0</v>
+        <v>124.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.0868505179773305</v>
+        <v>-60.339173149271254</v>
       </c>
     </row>
     <row r="12">
@@ -1011,52 +1011,52 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>236.0</v>
+        <v>303.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-24.516490832483992</v>
+        <v>-3.0868505179773305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>293.0</v>
+        <v>216.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.285304296261907</v>
+        <v>-30.91339838905315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>273.0</v>
+        <v>144.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.68221185283106</v>
+        <v>-53.9422655927021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>124.0</v>
+        <v>236.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-60.339173149271254</v>
+        <v>-24.516490832483992</v>
       </c>
     </row>
   </sheetData>
@@ -1149,44 +1149,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>445.0</v>
+        <v>413.0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.33119313366365</v>
+        <v>32.09614104315301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>89.0</v>
+        <v>330.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-71.53376137326727</v>
+        <v>5.548974683391027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>239.0</v>
+        <v>445.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-23.55695469899862</v>
+        <v>42.33119313366365</v>
       </c>
     </row>
     <row r="11">
@@ -1197,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>256.0</v>
+        <v>239.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.11958327591484</v>
+        <v>-23.55695469899862</v>
       </c>
     </row>
     <row r="12">
@@ -1211,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>338.0</v>
+        <v>256.0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.107737706018687</v>
+        <v>-18.11958327591484</v>
       </c>
     </row>
     <row r="13">
@@ -1225,24 +1225,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>330.0</v>
+        <v>89.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.548974683391027</v>
+        <v>-71.53376137326727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>413.0</v>
+        <v>338.0</v>
       </c>
       <c r="D14" t="n">
-        <v>32.09614104315301</v>
+        <v>8.107737706018687</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
